--- a/src/test/resources/Documents/25849/Base/JobMaterial.xlsx
+++ b/src/test/resources/Documents/25849/Base/JobMaterial.xlsx
@@ -86,27 +86,27 @@
     <t>Ink / Varnish</t>
   </si>
   <si>
+    <t xml:space="preserve">Magenta - IS29 Inkjet - </t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>449 - iQuote per liter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Black - IS29 Inkjet - </t>
   </si>
   <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>449 - iQuote per liter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magenta - IS29 Inkjet - </t>
+    <t xml:space="preserve">Yellow - IS29 Inkjet - </t>
   </si>
   <si>
     <t xml:space="preserve">Cyan - IS29 Inkjet - </t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow - IS29 Inkjet - </t>
-  </si>
-  <si>
     <t>Print B (Varnish 0x1)</t>
   </si>
   <si>
@@ -128,25 +128,25 @@
     <t>Print Collated F/B 4x4</t>
   </si>
   <si>
+    <t xml:space="preserve">Cyan - Digital - </t>
+  </si>
+  <si>
+    <t>30.39</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>IN-iQuote ink - iQuote - Indigo ink Click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black - Digital - </t>
+  </si>
+  <si>
     <t xml:space="preserve">Magenta - Digital - </t>
   </si>
   <si>
-    <t>30.39</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>IN-iQuote ink - iQuote - Indigo ink Click</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyan - Digital - </t>
-  </si>
-  <si>
     <t xml:space="preserve">Yellow - Digital - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black - Digital - </t>
   </si>
   <si>
     <t>Print F (Varnish 1x0)</t>
